--- a/data/hmo_2023_variables.xlsx
+++ b/data/hmo_2023_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maln\Documents\GitHub\housing_stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE56CD0-FDB0-47D0-A55C-874E76062123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA434324-9B36-435D-A573-97DEB665B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="1095" windowWidth="24375" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1725" windowWidth="24375" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provincial" sheetId="2" r:id="rId1"/>
@@ -11859,8 +11859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E085FA-9F27-430B-AAD7-4726A9AA06BA}">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C189"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13660,7 +13660,7 @@
         <v>110</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -13671,7 +13671,7 @@
         <v>111</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>1</v>
